--- a/DatosMetro.xlsx
+++ b/DatosMetro.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nico\OptiG65\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBB528-0BC9-42D0-AFCC-936E28E95487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +24,39 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <r>
+      <t>Hola</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -330,13 +365,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DatosMetro.xlsx
+++ b/DatosMetro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nico\OptiG65\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasmaldonado/Documents/GitHub/OptiG65/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBBB528-0BC9-42D0-AFCC-936E28E95487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <r>
       <t>Hola</t>
@@ -41,6 +41,9 @@
       </rPr>
       <t>x</t>
     </r>
+  </si>
+  <si>
+    <t>bienvenidos a Github</t>
   </si>
 </sst>
 </file>
@@ -366,15 +369,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DatosMetro.xlsx
+++ b/DatosMetro.xlsx
@@ -1,65 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasmaldonado/Documents/GitHub/OptiG65/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f75f1ef1e9600181/Escritorio/git_carpeta/OptiG65/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D19EBDF-82D9-4AC0-A20B-488AAC39160B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <r>
-      <t>Hola</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-  </si>
-  <si>
-    <t>bienvenidos a Github</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Rancagua</t>
+  </si>
+  <si>
+    <t>Viña</t>
+  </si>
+  <si>
+    <t>PSantiagoSantiago</t>
+  </si>
+  <si>
+    <t>PSantiagoCordillera</t>
+  </si>
+  <si>
+    <t>PSantiagoTalagante</t>
+  </si>
+  <si>
+    <t>PSantiagoMaipo</t>
+  </si>
+  <si>
+    <t>GSantiagoChacabuco</t>
+  </si>
+  <si>
+    <t>GSantiagoMelipilla</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Quilpue</t>
+  </si>
+  <si>
+    <t>LaSerena</t>
+  </si>
+  <si>
+    <t>Coquimbo</t>
+  </si>
+  <si>
+    <t>Ovalle</t>
+  </si>
+  <si>
+    <t>Curico</t>
+  </si>
+  <si>
+    <t>Chillan</t>
+  </si>
+  <si>
+    <t>LosAngeles</t>
+  </si>
+  <si>
+    <t>Talcahuano</t>
+  </si>
+  <si>
+    <t>SanPedroDeLaPaz</t>
+  </si>
+  <si>
+    <t>Coronel</t>
+  </si>
+  <si>
+    <t>Copiapo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -369,22 +416,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>18.489599999999999</v>
+      </c>
+      <c r="D1">
+        <v>5250565</v>
+      </c>
+      <c r="E1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>18.489599999999999</v>
+      </c>
+      <c r="D2">
+        <v>700000</v>
+      </c>
+      <c r="E2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>18.489599999999999</v>
+      </c>
+      <c r="D3">
+        <v>217449</v>
+      </c>
+      <c r="E3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>18.489599999999999</v>
+      </c>
+      <c r="D4">
+        <v>378444</v>
+      </c>
+      <c r="E4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>18.489599999999999</v>
+      </c>
+      <c r="D5">
+        <v>267553</v>
+      </c>
+      <c r="E5">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>18.489599999999999</v>
+      </c>
+      <c r="D6">
+        <v>185966</v>
+      </c>
+      <c r="E6">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>32.3568</v>
+      </c>
+      <c r="D7">
+        <v>296655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>32.3568</v>
+      </c>
+      <c r="D8">
+        <v>334248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>32.3568</v>
+      </c>
+      <c r="D9">
+        <v>151708</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>221054</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>227730</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>111272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>153937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>241774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>149136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>184739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>223574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>202331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>151749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
+        <v>131808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>116262</v>
       </c>
     </row>
   </sheetData>

--- a/DatosMetro.xlsx
+++ b/DatosMetro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f75f1ef1e9600181/Escritorio/git_carpeta/OptiG65/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D19EBDF-82D9-4AC0-A20B-488AAC39160B}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{E3C9C455-40F8-4B44-8DD4-6A7750C2BE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953D4D7F-4A22-4FD1-83CB-23D71371C992}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="195" windowWidth="18180" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
